--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2004867.939232173</v>
+        <v>1997850.92434046</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>292.6412401928959</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>98.63122914173753</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>201.1407479991918</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>259.7315278262284</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>244.4752740674072</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>94.45289593214784</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>157.0044783406138</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>156.7418470016296</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.777345985076</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>59.73601180477759</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.315905416863</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>37.03952420896927</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>238.2336684417116</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.3355334292078</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>134.0496424203801</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.34516675270106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>58.4016882597743</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>51.19354411503694</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>28.96381508363906</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>146.1854691670918</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>176.2040816163982</v>
+        <v>106.2332413438257</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>94.1648127494131</v>
+        <v>283.8073485474567</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>69.81692934082234</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>84.60427528716232</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
-        <v>247.5766173605823</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.32276211751105</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>113.3925251380654</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1547.452423968253</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1178.489907027842</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1178.489907027842</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>1178.489907027842</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F2" t="n">
-        <v>767.5040022382341</v>
+        <v>898.729014069748</v>
       </c>
       <c r="G2" t="n">
-        <v>349.540194136421</v>
+        <v>480.7652059679349</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>153.5704860039377</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1937.591755944065</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1547.452423968253</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1282.700798147047</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C5" t="n">
-        <v>913.7382812066351</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>469.7640364376268</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1669.300638211168</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1669.300638211168</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1669.300638211168</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>195.0064718412582</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C7" t="n">
-        <v>195.0064718412582</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D7" t="n">
-        <v>195.0064718412582</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="E7" t="n">
-        <v>195.0064718412582</v>
+        <v>359.423311480511</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>212.5333639826006</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>195.0064718412582</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>195.0064718412582</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>195.0064718412582</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.68376869814</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224077</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.68376869814</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>250.6112985851279</v>
+        <v>546.4805193761952</v>
       </c>
       <c r="C10" t="n">
-        <v>250.6112985851279</v>
+        <v>377.5443364482883</v>
       </c>
       <c r="D10" t="n">
-        <v>250.6112985851279</v>
+        <v>227.4276970359525</v>
       </c>
       <c r="E10" t="n">
-        <v>250.6112985851279</v>
+        <v>79.51460345355943</v>
       </c>
       <c r="F10" t="n">
-        <v>250.6112985851279</v>
+        <v>79.51460345355943</v>
       </c>
       <c r="G10" t="n">
-        <v>250.6112985851279</v>
+        <v>79.51460345355943</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>79.51460345355943</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>79.51460345355943</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>471.403877728658</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>471.403877728658</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>471.403877728658</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>471.403877728658</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>471.403877728658</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>250.6112985851279</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,40 +5026,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>2881.956579893676</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>3128.721707800139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>3436.041841080101</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>3765.904468744134</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1150.507496218139</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1150.507496218139</v>
+        <v>1258.27620142486</v>
       </c>
       <c r="V13" t="n">
-        <v>895.8230080122524</v>
+        <v>1003.591713218973</v>
       </c>
       <c r="W13" t="n">
-        <v>895.8230080122524</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X13" t="n">
-        <v>667.8334571142351</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.040877970705</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="14">
@@ -5260,31 +5260,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1894.594339433115</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2174.134404651812</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>544.6416868225887</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="C16" t="n">
-        <v>544.6416868225887</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>874.4639424745077</v>
       </c>
       <c r="W16" t="n">
-        <v>1133.156678913841</v>
+        <v>874.4639424745077</v>
       </c>
       <c r="X16" t="n">
-        <v>905.1671280158237</v>
+        <v>874.4639424745077</v>
       </c>
       <c r="Y16" t="n">
-        <v>684.3745488722935</v>
+        <v>653.6713633309776</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>624.8682044203586</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>932.1883377003201</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>420.3226148324571</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5752,7 +5752,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5779,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5846,13 +5846,13 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3778.509585296639</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C22" t="n">
-        <v>3609.573402368732</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>3609.573402368732</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>3609.573402368732</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>3609.573402368732</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4698.068818954868</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4698.068818954868</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4408.940180168426</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>4408.940180168426</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>4408.940180168426</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>4180.950629270409</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>3960.158050126879</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,19 +5980,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6013,7 +6013,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>242.5343297994526</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>391.6040140015125</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>638.3691419079765</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>761.6147079354637</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C25" t="n">
-        <v>592.6785250075568</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D25" t="n">
-        <v>442.561885595221</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>294.6487920128279</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1164.055751909234</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>1164.055751909234</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W25" t="n">
-        <v>1164.055751909234</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X25" t="n">
-        <v>1164.055751909234</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y25" t="n">
-        <v>943.2631727657034</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1470.815640507006</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.3743239205529</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C28" t="n">
-        <v>542.438140992646</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D28" t="n">
         <v>542.438140992646</v>
@@ -6378,10 +6378,10 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1121.01233964881</v>
+        <v>1391.6099661702</v>
       </c>
       <c r="W28" t="n">
-        <v>1121.01233964881</v>
+        <v>1102.192796133239</v>
       </c>
       <c r="X28" t="n">
-        <v>893.0227887507926</v>
+        <v>874.2032452352215</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.0227887507926</v>
+        <v>874.2032452352215</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,13 +6484,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2881.956579893676</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3128.721707800139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3436.041841080101</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>3765.904468744134</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916676</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916676</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>4326.074044281177</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>4036.945405494735</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V31" t="n">
-        <v>3782.260917288848</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W31" t="n">
-        <v>3687.144944814693</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="X31" t="n">
-        <v>3459.155393916676</v>
+        <v>677.4616523829103</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916676</v>
+        <v>677.4616523829103</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,16 +6779,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1689.561836756086</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
         <v>2051.878056918008</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1204.608704498093</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>949.9242162922058</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>949.9242162922058</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>949.9242162922058</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6934,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>159.1396882805841</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>570.0299571250968</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>816.7950850315608</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7162,25 +7162,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7192,34 +7192,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>846.3978353108172</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1248.838879284587</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1248.838879284587</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1248.838879284587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>1028.046300141057</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7438,10 +7438,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>268.6754855415407</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>496.665036439558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>268.6754855415407</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>268.6754855415407</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7672,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211722</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>966.693239001134</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1966.019627967826</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>531.1091870201135</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>362.1730040922066</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>362.1730040922066</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>362.1730040922066</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>362.1730040922066</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.210845262961</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>820.5263570570741</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>531.1091870201135</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>531.1091870201135</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>531.1091870201135</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451747</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503158</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>158.8724419039332</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>91.23759968302147</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>104.874910276575</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9956,22 +9956,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>43.65987261462539</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10132,10 +10132,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>234.4116509503158</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N33" t="n">
-        <v>32.78140656352411</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>20.63789864135415</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>234.4116509503167</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>148.274714356655</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>184.50803684942</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>48.00368395686573</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.4964467527295</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>118.0880009034479</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>196.2394865993937</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>146.7272658685663</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>116.4572329392922</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>140.3375291694992</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24660,10 +24660,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>75.93356170742982</v>
+        <v>145.9044019800023</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>192.3581855871779</v>
+        <v>2.715649789134318</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>216.420423057755</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.22770489477497</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
-        <v>4.561025963245697</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9240589811168</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>53.10104332531218</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>876357.1682632322</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>876357.1682632323</v>
+        <v>876357.1682632325</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="F2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="J2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="F2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="L2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="H2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="I2" t="n">
-        <v>527889.2306459073</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="N2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="K2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459073</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.2306459071</v>
-      </c>
       <c r="O2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.407704980418203e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26426,13 +26426,13 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
         <v>36432.48351773396</v>
@@ -26447,13 +26447,13 @@
         <v>36432.48351773396</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="M4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="N4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
         <v>36432.48351773394</v>
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,13 +26490,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26527,43 +26527,43 @@
         <v>287995.4297378537</v>
       </c>
       <c r="D6" t="n">
-        <v>287995.4297378536</v>
+        <v>287995.4297378532</v>
       </c>
       <c r="E6" t="n">
-        <v>-125690.6152974396</v>
+        <v>-126665.2065571608</v>
       </c>
       <c r="F6" t="n">
-        <v>399469.4211794565</v>
+        <v>398494.8299197346</v>
       </c>
       <c r="G6" t="n">
-        <v>399469.4211794565</v>
+        <v>398494.8299197346</v>
       </c>
       <c r="H6" t="n">
-        <v>399469.4211794566</v>
+        <v>398494.8299197346</v>
       </c>
       <c r="I6" t="n">
-        <v>399469.4211794568</v>
+        <v>398494.8299197346</v>
       </c>
       <c r="J6" t="n">
-        <v>223046.2019868634</v>
+        <v>222071.6107271417</v>
       </c>
       <c r="K6" t="n">
-        <v>399469.4211794564</v>
+        <v>398494.8299197346</v>
       </c>
       <c r="L6" t="n">
-        <v>399469.4211794566</v>
+        <v>398494.8299197348</v>
       </c>
       <c r="M6" t="n">
-        <v>264668.4059456196</v>
+        <v>263693.8146858977</v>
       </c>
       <c r="N6" t="n">
-        <v>399469.4211794565</v>
+        <v>398494.8299197346</v>
       </c>
       <c r="O6" t="n">
-        <v>399469.4211794566</v>
+        <v>398494.8299197346</v>
       </c>
       <c r="P6" t="n">
-        <v>399469.4211794566</v>
+        <v>398494.8299197346</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>31.28153257146124</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>53.30008710312372</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>85.14112624278593</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>154.0526421945666</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>104.7656946500059</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>50.96815209078341</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>10.30532391843713</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>208.5310447693779</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339302</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>96.43487703701756</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>19.88405377167396</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355116</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382551</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35506,13 +35506,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35734,22 +35734,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>365.9658568354579</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>340.4953046390457</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36214,16 +36214,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>462.3874039146955</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>146.7850892314816</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36676,22 +36676,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>376.8544460126382</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36852,10 +36852,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>384.9870895382551</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N33" t="n">
-        <v>365.975979961537</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>62.54807759626083</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37399,16 +37399,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>544.836028000783</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>355.3681292881798</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1997850.92434046</v>
+        <v>2002790.187189493</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>270.6226856612334</v>
       </c>
       <c r="I2" t="n">
-        <v>98.63122914173753</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>59.72683757586863</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>133.9566202902064</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>259.7315278262284</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>327.3445509993118</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>157.0044783406138</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>41.03250833503017</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>290.5286403308939</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.777345985076</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.315905416863</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>10.67818248838738</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>238.2336684417116</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>134.0496424203801</v>
+        <v>92.59215181082195</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>28.01945746894981</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385011</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>58.4016882597743</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>253.5654994772943</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>146.1854691670918</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>67.00601232933026</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>106.2332413438257</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>283.8073485474567</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
     </row>
     <row r="35">
@@ -3271,13 +3271,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16.68610738332306</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>129.7991263300502</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4324,19 +4324,19 @@
         <v>480.7652059679349</v>
       </c>
       <c r="H2" t="n">
-        <v>153.5704860039377</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785276</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661918</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837987</v>
+        <v>550.798971477663</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858883</v>
+        <v>403.9090239797526</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>234.9092237180851</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>234.9092237180851</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.712458167646</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="C5" t="n">
-        <v>880.7499412272343</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D5" t="n">
-        <v>880.7499412272343</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>880.7499412272343</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>469.7640364376268</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2135.291852247419</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.523196977305</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1409.057438716225</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1018.918106740413</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,13 +4649,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629041</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C7" t="n">
-        <v>507.3364050629041</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>507.3364050629041</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>359.423311480511</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>212.5333639826006</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>686.6820060902423</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1562.144220371538</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1176.355967773294</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>765.3700629836867</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>347.4062548818736</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761952</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359525</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>79.51460345355943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>79.51460345355943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>79.51460345355943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>79.51460345355943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064349</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064349</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5032,10 +5032,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028562</v>
@@ -5120,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404652</v>
+        <v>893.5623804327207</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>724.6261975048138</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>574.5095580924781</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>426.596464510085</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1258.27620142486</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1003.591713218973</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W13" t="n">
-        <v>714.1745431820127</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X13" t="n">
-        <v>486.1849922839954</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y13" t="n">
-        <v>265.3924131404652</v>
+        <v>1075.21084526296</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,16 +5275,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093322</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.6713633309776</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C16" t="n">
-        <v>653.6713633309776</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D16" t="n">
-        <v>503.5547239186418</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>874.4639424745077</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="W16" t="n">
-        <v>874.4639424745077</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="X16" t="n">
-        <v>874.4639424745077</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="Y16" t="n">
-        <v>653.6713633309776</v>
+        <v>692.5547804049818</v>
       </c>
     </row>
     <row r="17">
@@ -5503,40 +5503,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5582,40 +5582,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.785243411008</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555207</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>272.4095212500647</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>125.5195737521543</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>125.5195737521543</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5676,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324578</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,7 +5743,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,52 +5752,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.3840174432676</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
         <v>265.3924131404652</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1042.869493324673</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>788.1850051187861</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>788.1850051187861</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735073</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5989,28 +5989,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365134</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>675.007103038344</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>527.3450129705744</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,40 +6205,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6250,22 +6250,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>1088.787142923175</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>1396.107276203137</v>
       </c>
       <c r="N27" t="n">
-        <v>1171.725741678162</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>692.5547804049818</v>
+        <v>315.0165716093188</v>
       </c>
       <c r="C28" t="n">
-        <v>692.5547804049818</v>
+        <v>315.0165716093188</v>
       </c>
       <c r="D28" t="n">
-        <v>542.438140992646</v>
+        <v>164.8999321969831</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102529</v>
+        <v>164.8999321969831</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>164.8999321969831</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>164.8999321969831</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>164.8999321969831</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>1391.6099661702</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W28" t="n">
-        <v>1102.192796133239</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="X28" t="n">
-        <v>874.2032452352215</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="Y28" t="n">
-        <v>874.2032452352215</v>
+        <v>496.6650364395585</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899126</v>
@@ -6487,10 +6487,10 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>964.1357418247858</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>677.4616523829103</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6861,13 +6861,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,31 +6876,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028584</v>
@@ -6919,7 +6919,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,7 +6928,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6946,19 +6946,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7098,13 +7098,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>503.0396462065439</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>282.2470670630138</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7335,13 +7335,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,19 +7350,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
         <v>869.3083006011506</v>
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
         <v>97.21709146028584</v>
@@ -7572,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="44">
@@ -7639,22 +7639,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7663,13 +7663,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7809,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,19 +7824,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011506</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451747</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>29.47535963978235</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>29.47535963978166</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814591</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>176.7176547498443</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>295.3773510571261</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>134.7428655345439</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>48.00368395686573</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>118.0880009034479</v>
+        <v>159.5454915130061</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>120.8943708985863</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>108.8451328388535</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>32.671852921283</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>140.3375291694992</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>43.41323313494171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>145.9044019800023</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>2.715649789134318</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518767</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>163.1458727986142</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>88.78552702204459</v>
       </c>
     </row>
     <row r="44">
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>876357.1682632325</v>
+        <v>876357.1682632323</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583909</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583911</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583909</v>
-      </c>
       <c r="E2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="H2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="K2" t="n">
         <v>527889.2306459069</v>
@@ -26355,7 +26355,7 @@
         <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459068</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.407704980418203e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.695895773285884e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773392</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773393</v>
       </c>
     </row>
     <row r="5">
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,7 +26499,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301972.4494766906</v>
+        <v>-301972.4494766904</v>
       </c>
       <c r="C6" t="n">
+        <v>287995.4297378535</v>
+      </c>
+      <c r="D6" t="n">
         <v>287995.4297378537</v>
       </c>
-      <c r="D6" t="n">
-        <v>287995.4297378532</v>
-      </c>
       <c r="E6" t="n">
-        <v>-126665.2065571608</v>
+        <v>-125788.0744234119</v>
       </c>
       <c r="F6" t="n">
-        <v>398494.8299197346</v>
+        <v>399371.9620534838</v>
       </c>
       <c r="G6" t="n">
-        <v>398494.8299197346</v>
+        <v>399371.9620534845</v>
       </c>
       <c r="H6" t="n">
-        <v>398494.8299197346</v>
+        <v>399371.9620534841</v>
       </c>
       <c r="I6" t="n">
-        <v>398494.8299197346</v>
+        <v>399371.9620534845</v>
       </c>
       <c r="J6" t="n">
-        <v>222071.6107271417</v>
+        <v>222948.7428608915</v>
       </c>
       <c r="K6" t="n">
-        <v>398494.8299197346</v>
+        <v>399371.9620534841</v>
       </c>
       <c r="L6" t="n">
-        <v>398494.8299197348</v>
+        <v>399371.9620534842</v>
       </c>
       <c r="M6" t="n">
-        <v>263693.8146858977</v>
+        <v>264570.946819647</v>
       </c>
       <c r="N6" t="n">
-        <v>398494.8299197346</v>
+        <v>399371.9620534841</v>
       </c>
       <c r="O6" t="n">
-        <v>398494.8299197346</v>
+        <v>399371.9620534841</v>
       </c>
       <c r="P6" t="n">
-        <v>398494.8299197346</v>
+        <v>399371.962053484</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53.3000871031237</v>
       </c>
       <c r="I2" t="n">
-        <v>53.30008710312372</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>107.5829646831823</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>1.009001502131838</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>154.0526421945666</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.4077074708231407</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>10.30532391843713</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>177.5521450170646</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>33.3941324334632</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339302</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>19.88405377167396</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770697</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355116</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>117.4883924248565</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>236.5687745713064</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330527</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058687</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>544.6350560131506</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
